--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1BC10C-6D4D-473C-898B-ADB98CBC74F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0224F80-DBCF-4F97-8946-81628029B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="171">
   <si>
     <t>Complemento</t>
   </si>
@@ -416,9 +416,6 @@
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
@@ -495,6 +492,66 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>AVENTAL - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>PC C/10</t>
+  </si>
+  <si>
+    <t>S010007</t>
+  </si>
+  <si>
+    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - UNICA</t>
+  </si>
+  <si>
+    <t>S230009</t>
+  </si>
+  <si>
+    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - UNICA</t>
+  </si>
+  <si>
+    <t>S020036</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
   </si>
 </sst>
 </file>
@@ -577,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -594,21 +651,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -940,967 +991,1285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D8" s="5">
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D9" s="5">
         <v>1045</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D10" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D11" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D12" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D13" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="5">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="5">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="5">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="5">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="5">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="5">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="4">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="5">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="5">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="5">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="4">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="5">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="5">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="5">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="4">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="4">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="4">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="4">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="4">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="5">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="5">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="4">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="5">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="5">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="5">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="5">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="4" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="B89" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="5">
+      <c r="D89" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C83" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C84">
-      <sortCondition ref="A1:A83"/>
+  <autoFilter ref="A1:D88" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
+      <sortCondition ref="A1:A88"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="2" priority="20">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C25 A27:C84">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D89">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C26">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C26" numberStoredAsText="1"/>
+    <ignoredError sqref="D44:D72 D7:D42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0224F80-DBCF-4F97-8946-81628029B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9819D4-E309-45AD-B3E5-0D54D36CD96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -548,10 +548,10 @@
     <t>S020036</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
-    <t>S050008</t>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
   </si>
 </sst>
 </file>
@@ -695,9 +695,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -735,7 +735,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -841,7 +841,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -983,7 +983,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,69 +1343,69 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="4">
-        <v>103</v>
+        <v>170</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>150</v>
+        <v>125</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1413,69 +1413,69 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="5">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="4">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D32" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="4">
+        <v>129</v>
+      </c>
+      <c r="D33" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1483,21 +1483,21 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="5">
-        <v>899</v>
+        <v>42</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>153</v>
@@ -1506,12 +1506,12 @@
         <v>44</v>
       </c>
       <c r="D36" s="5">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>153</v>
@@ -1520,12 +1520,12 @@
         <v>44</v>
       </c>
       <c r="D37" s="5">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>153</v>
@@ -1534,40 +1534,40 @@
         <v>44</v>
       </c>
       <c r="D38" s="5">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="D39" s="5">
-        <v>1</v>
+        <v>898</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="4">
-        <v>166</v>
+        <v>131</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>153</v>
@@ -1576,35 +1576,35 @@
         <v>49</v>
       </c>
       <c r="D41" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>150</v>
+        <v>49</v>
+      </c>
+      <c r="D42" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2269,7 +2269,7 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D44:D72 D7:D42" numberStoredAsText="1"/>
+    <ignoredError sqref="D44:D72 D26:D43 D7:D24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9819D4-E309-45AD-B3E5-0D54D36CD96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337638B9-7DF9-495A-B9EE-D84696E72533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -518,15 +518,9 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>PC C/10</t>
   </si>
   <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>DISPENSER ALCOOL EM GEL - UNICA</t>
   </si>
   <si>
@@ -552,6 +546,12 @@
   </si>
   <si>
     <t>S150189</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -993,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,13 +1100,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>150</v>
@@ -1343,13 +1352,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1371,7 +1380,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>153</v>
@@ -1595,13 +1604,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>150</v>
@@ -1931,7 +1940,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>153</v>
@@ -1940,7 +1949,7 @@
         <v>80</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,13 +2010,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>150</v>
@@ -2258,18 +2267,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D89">
+  <conditionalFormatting sqref="A2:D6 A8:D89">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:D7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D44:D72 D26:D43 D7:D24" numberStoredAsText="1"/>
+    <ignoredError sqref="D44:D72 D26:D43 D8:D24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337638B9-7DF9-495A-B9EE-D84696E72533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0104CF-6D97-45E9-8691-646C16B03FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="173">
   <si>
     <t>Complemento</t>
   </si>
@@ -398,12 +398,6 @@
     <t>S150190</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010054</t>
-  </si>
-  <si>
     <t>ALMOFADA P/ CARIMBO N°03 - AZUL - AZUL</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>S010087</t>
   </si>
   <si>
-    <t>ENVELOPE A4 - NATURAL - NATURAL</t>
-  </si>
-  <si>
     <t>S020041</t>
   </si>
   <si>
@@ -552,6 +543,21 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
+  </si>
+  <si>
+    <t>S080015</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>ENVELOPE A4 - OURO - OURO</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -1002,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1033,7 +1048,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>105</v>
@@ -1047,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1061,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1075,7 +1090,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>103</v>
@@ -1086,13 +1101,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1100,16 +1115,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1131,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1145,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1159,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1173,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1187,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1201,7 +1216,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1212,13 +1227,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1229,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1243,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1254,10 +1269,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1271,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1285,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
@@ -1299,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
@@ -1313,7 +1328,7 @@
         <v>106</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>107</v>
@@ -1324,10 +1339,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>107</v>
@@ -1341,7 +1356,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1352,13 +1367,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1369,7 +1384,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -1380,13 +1395,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1394,16 +1409,16 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,7 +1426,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -1425,7 +1440,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1439,7 +1454,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -1450,27 +1465,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="4">
-        <v>13</v>
+        <v>124</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1481,7 +1496,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>40</v>
@@ -1495,7 +1510,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>42</v>
@@ -1509,7 +1524,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
@@ -1523,7 +1538,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>44</v>
@@ -1537,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>44</v>
@@ -1551,7 +1566,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>44</v>
@@ -1562,13 +1577,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1579,7 +1594,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>49</v>
@@ -1593,7 +1608,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>49</v>
@@ -1604,16 +1619,16 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>52</v>
@@ -1635,7 +1650,7 @@
         <v>53</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>54</v>
@@ -1649,7 +1664,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>56</v>
@@ -1663,7 +1678,7 @@
         <v>57</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>58</v>
@@ -1677,7 +1692,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>109</v>
@@ -1691,7 +1706,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>114</v>
@@ -1705,7 +1720,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>60</v>
@@ -1719,7 +1734,7 @@
         <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>62</v>
@@ -1733,7 +1748,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>64</v>
@@ -1747,7 +1762,7 @@
         <v>110</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>111</v>
@@ -1758,10 +1773,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>111</v>
@@ -1775,7 +1790,7 @@
         <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>111</v>
@@ -1789,7 +1804,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>66</v>
@@ -1803,7 +1818,7 @@
         <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>68</v>
@@ -1817,7 +1832,7 @@
         <v>69</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>70</v>
@@ -1828,13 +1843,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1845,7 +1860,7 @@
         <v>71</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>72</v>
@@ -1859,7 +1874,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>72</v>
@@ -1870,10 +1885,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>74</v>
@@ -1887,7 +1902,7 @@
         <v>75</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>76</v>
@@ -1901,7 +1916,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>78</v>
@@ -1915,7 +1930,7 @@
         <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>80</v>
@@ -1929,7 +1944,7 @@
         <v>81</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>80</v>
@@ -1940,16 +1955,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,7 +1972,7 @@
         <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>83</v>
@@ -1971,7 +1986,7 @@
         <v>84</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>83</v>
@@ -1985,7 +2000,7 @@
         <v>87</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>86</v>
@@ -1999,7 +2014,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>86</v>
@@ -2010,16 +2025,16 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,7 +2042,7 @@
         <v>88</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>89</v>
@@ -2038,13 +2053,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2055,7 +2070,7 @@
         <v>90</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>91</v>
@@ -2069,7 +2084,7 @@
         <v>115</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>116</v>
@@ -2083,7 +2098,7 @@
         <v>92</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>93</v>
@@ -2097,7 +2112,7 @@
         <v>94</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>93</v>
@@ -2111,7 +2126,7 @@
         <v>95</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>93</v>
@@ -2125,7 +2140,7 @@
         <v>96</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>97</v>
@@ -2139,7 +2154,7 @@
         <v>98</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>97</v>
@@ -2153,7 +2168,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>97</v>
@@ -2167,7 +2182,7 @@
         <v>100</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>101</v>
@@ -2178,13 +2193,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2192,13 +2207,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2206,13 +2221,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -2223,7 +2238,7 @@
         <v>117</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>118</v>
@@ -2234,27 +2249,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="5">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
@@ -2267,23 +2282,28 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D6 A8:D89">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D31 A89:D89 A33:D87">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7">
+  <conditionalFormatting sqref="A88:D88">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A88))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:D32">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
+      <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D44:D72 D26:D43 D8:D24" numberStoredAsText="1"/>
+    <ignoredError sqref="D44:D72 D26:D31 D8:D24 D33:D43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0104CF-6D97-45E9-8691-646C16B03FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C2CFB-383B-4E3C-87FE-7F4A1C2E2F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -263,9 +263,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -558,6 +552,12 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -665,16 +665,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1017,9 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1034,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1045,13 +1034,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1062,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1076,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1087,13 +1076,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1101,13 +1090,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1115,16 +1104,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1146,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1160,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1174,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1188,7 +1177,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1202,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1216,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1227,13 +1216,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1244,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1258,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1269,10 +1258,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1286,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1300,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
@@ -1314,7 +1303,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
@@ -1325,13 +1314,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1339,13 +1328,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1356,7 +1345,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1367,13 +1356,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1384,7 +1373,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -1395,13 +1384,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1409,30 +1398,30 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>147</v>
+        <v>34</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,7 +1429,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1454,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -1465,27 +1454,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1496,7 +1485,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>40</v>
@@ -1510,7 +1499,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>42</v>
@@ -1524,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>44</v>
@@ -1538,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>44</v>
@@ -1552,7 +1541,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>44</v>
@@ -1566,7 +1555,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>44</v>
@@ -1577,13 +1566,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1591,83 +1580,83 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="D41" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>147</v>
+        <v>49</v>
+      </c>
+      <c r="D43" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1675,27 +1664,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="D47" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1703,209 +1692,209 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="4">
+        <v>108</v>
+      </c>
+      <c r="D49" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D50" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="D53" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D54" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="D60" s="4">
-        <v>820</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D63" s="4">
         <v>553</v>
@@ -1913,13 +1902,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>395</v>
@@ -1927,13 +1916,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D65" s="4">
         <v>86</v>
@@ -1941,13 +1930,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="4">
         <v>87</v>
@@ -1955,27 +1944,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D68" s="4">
         <v>55</v>
@@ -1983,13 +1972,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="4">
         <v>54</v>
@@ -1997,13 +1986,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="5">
         <v>994</v>
@@ -2011,13 +2000,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D71" s="5">
         <v>695</v>
@@ -2025,27 +2014,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2053,13 +2042,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2067,13 +2056,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2081,13 +2070,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D76" s="4">
         <v>918</v>
@@ -2095,13 +2084,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D77" s="4">
         <v>170</v>
@@ -2109,13 +2098,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78" s="5">
         <v>163</v>
@@ -2123,13 +2112,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" s="5">
         <v>799</v>
@@ -2137,13 +2126,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D80" s="5">
         <v>160</v>
@@ -2151,13 +2140,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D81" s="5">
         <v>569</v>
@@ -2165,13 +2154,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D82" s="5">
         <v>762</v>
@@ -2179,13 +2168,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D83" s="4">
         <v>211</v>
@@ -2193,13 +2182,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2207,13 +2196,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2221,13 +2210,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -2235,13 +2224,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2249,27 +2238,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
@@ -2282,28 +2271,20 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D31 A89:D89 A33:D87">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D61 A63:D89">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:D88">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A88))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:D32">
+  <conditionalFormatting sqref="A62:D62">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A32))&gt;0</formula>
+      <formula>LEN(TRIM(A62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D44:D72 D26:D31 D8:D24 D33:D43" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08C2CFB-383B-4E3C-87FE-7F4A1C2E2F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41828E68-C282-4783-B7FB-F70B21102645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1034,13 +1036,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1051,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1065,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1076,13 +1078,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1090,13 +1092,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1104,16 +1106,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1121,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1135,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1149,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1163,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1177,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1191,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1205,7 +1207,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1216,13 +1218,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1233,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1247,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1258,10 +1260,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1275,7 +1277,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1289,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
@@ -1303,7 +1305,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
@@ -1314,13 +1316,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1328,13 +1330,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1345,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1356,13 +1358,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1373,7 +1375,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -1384,13 +1386,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1401,7 +1403,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1412,16 +1414,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,7 +1431,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1443,7 +1445,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -1454,27 +1456,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1482,27 +1484,27 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1510,13 +1512,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D36" s="5">
         <v>899</v>
@@ -1524,13 +1526,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="5">
         <v>896</v>
@@ -1538,13 +1540,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="5">
         <v>900</v>
@@ -1552,13 +1554,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="5">
         <v>898</v>
@@ -1566,13 +1568,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1580,13 +1582,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
@@ -1594,13 +1596,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D42" s="4">
         <v>166</v>
@@ -1608,13 +1610,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="4">
         <v>167</v>
@@ -1622,27 +1624,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1650,13 +1652,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1664,13 +1666,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1678,13 +1680,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1692,13 +1694,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
@@ -1706,13 +1708,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1720,13 +1722,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D51" s="4">
         <v>40</v>
@@ -1734,13 +1736,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1748,13 +1750,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D53" s="4">
         <v>745</v>
@@ -1762,13 +1764,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1776,13 +1778,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1790,13 +1792,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1804,13 +1806,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1818,13 +1820,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1832,13 +1834,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D59" s="4">
         <v>211</v>
@@ -1846,13 +1848,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1860,13 +1862,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D61" s="4">
         <v>820</v>
@@ -1874,13 +1876,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="4">
         <v>819</v>
@@ -1888,13 +1890,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D63" s="4">
         <v>553</v>
@@ -1902,13 +1904,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D64" s="4">
         <v>395</v>
@@ -1916,13 +1918,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D65" s="4">
         <v>86</v>
@@ -1930,13 +1932,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="4">
         <v>87</v>
@@ -1944,27 +1946,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>55</v>
@@ -1972,13 +1974,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="4">
         <v>54</v>
@@ -1986,13 +1988,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="5">
         <v>994</v>
@@ -2000,13 +2002,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D71" s="5">
         <v>695</v>
@@ -2014,27 +2016,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2042,13 +2044,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2056,13 +2058,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2070,13 +2072,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D76" s="4">
         <v>918</v>
@@ -2084,13 +2086,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D77" s="4">
         <v>170</v>
@@ -2098,13 +2100,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="5">
         <v>163</v>
@@ -2112,13 +2114,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="5">
         <v>799</v>
@@ -2126,13 +2128,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D80" s="5">
         <v>160</v>
@@ -2140,13 +2142,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D81" s="5">
         <v>569</v>
@@ -2154,13 +2156,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" s="5">
         <v>762</v>
@@ -2168,13 +2170,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D83" s="4">
         <v>211</v>
@@ -2182,13 +2184,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2196,13 +2198,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2210,13 +2212,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -2224,13 +2226,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2238,27 +2240,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
@@ -2271,18 +2273,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D61 A63:D89">
+  <conditionalFormatting sqref="A2:D33 A35:D89">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:D62">
+  <conditionalFormatting sqref="A34:D34">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
+      <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41828E68-C282-4783-B7FB-F70B21102645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D34D11-CB89-46F1-8D34-0B808EF25158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -374,12 +374,6 @@
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -558,6 +552,12 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>102</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>103</v>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1081,7 +1081,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>101</v>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1106,16 +1106,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1137,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1151,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1165,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1193,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1207,7 +1207,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1249,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1277,7 +1277,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1291,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
@@ -1305,7 +1305,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
@@ -1319,7 +1319,7 @@
         <v>104</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>105</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>105</v>
@@ -1347,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1358,13 +1358,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -1386,13 +1386,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>34</v>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
@@ -1445,7 +1445,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -1456,27 +1456,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>39</v>
@@ -1501,7 +1501,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
@@ -1515,7 +1515,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>43</v>
@@ -1529,7 +1529,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>43</v>
@@ -1543,7 +1543,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1557,7 +1557,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>43</v>
@@ -1568,13 +1568,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
@@ -1599,7 +1599,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>48</v>
@@ -1613,7 +1613,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>48</v>
@@ -1624,16 +1624,16 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>51</v>
@@ -1655,7 +1655,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>53</v>
@@ -1669,7 +1669,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
@@ -1683,7 +1683,7 @@
         <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>57</v>
@@ -1697,7 +1697,7 @@
         <v>106</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>107</v>
@@ -1708,16 +1708,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>59</v>
@@ -1739,7 +1739,7 @@
         <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>61</v>
@@ -1753,7 +1753,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>63</v>
@@ -1767,7 +1767,7 @@
         <v>108</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>109</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>109</v>
@@ -1795,7 +1795,7 @@
         <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>109</v>
@@ -1809,7 +1809,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>65</v>
@@ -1823,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>67</v>
@@ -1837,7 +1837,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>69</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>70</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>71</v>
@@ -1879,7 +1879,7 @@
         <v>72</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>71</v>
@@ -1893,7 +1893,7 @@
         <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>74</v>
@@ -1907,7 +1907,7 @@
         <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>76</v>
@@ -1921,7 +1921,7 @@
         <v>77</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>78</v>
@@ -1935,7 +1935,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>78</v>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>81</v>
@@ -1977,7 +1977,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>81</v>
@@ -1991,7 +1991,7 @@
         <v>85</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>84</v>
@@ -2005,7 +2005,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>84</v>
@@ -2016,16 +2016,16 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>87</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>89</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D76" s="4">
         <v>918</v>
@@ -2089,7 +2089,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>91</v>
@@ -2103,7 +2103,7 @@
         <v>92</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -2117,7 +2117,7 @@
         <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>91</v>
@@ -2131,7 +2131,7 @@
         <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>95</v>
@@ -2145,7 +2145,7 @@
         <v>96</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>95</v>
@@ -2159,7 +2159,7 @@
         <v>97</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>95</v>
@@ -2173,7 +2173,7 @@
         <v>98</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>99</v>
@@ -2184,13 +2184,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2198,13 +2198,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -2226,13 +2226,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2240,27 +2240,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
@@ -2273,18 +2273,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D33 A35:D89">
+  <conditionalFormatting sqref="A2:D49 A51:D89">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:D34">
+  <conditionalFormatting sqref="A50:D50">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
+      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D34D11-CB89-46F1-8D34-0B808EF25158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DE4E2-4936-4F55-8CDD-3DFF20269F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
   <si>
     <t>Complemento</t>
   </si>
@@ -140,18 +140,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -461,12 +449,6 @@
     <t>S010038</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -497,9 +479,6 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - UNICA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -558,6 +537,18 @@
   </si>
   <si>
     <t>S010024</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1036,13 +1027,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1053,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1067,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1078,13 +1069,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1092,13 +1083,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1106,16 +1097,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1123,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1137,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1151,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1165,7 +1156,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1179,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1193,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1207,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1218,13 +1209,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1235,7 +1226,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1249,7 +1240,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1260,10 +1251,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1277,7 +1268,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1291,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>26</v>
@@ -1305,7 +1296,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
@@ -1316,13 +1307,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1330,13 +1321,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1347,7 +1338,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -1358,13 +1349,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1375,7 +1366,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -1386,69 +1377,69 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>142</v>
+        <v>115</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1456,27 +1447,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1484,13 +1475,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4">
         <v>1159</v>
@@ -1498,13 +1489,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1512,13 +1503,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D36" s="5">
         <v>899</v>
@@ -1526,13 +1517,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37" s="5">
         <v>896</v>
@@ -1540,13 +1531,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D38" s="5">
         <v>900</v>
@@ -1554,13 +1545,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D39" s="5">
         <v>898</v>
@@ -1568,13 +1559,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1582,13 +1573,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
@@ -1596,13 +1587,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D42" s="4">
         <v>166</v>
@@ -1610,13 +1601,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4">
         <v>167</v>
@@ -1624,27 +1615,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1652,13 +1643,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1666,13 +1657,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1680,13 +1671,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1694,13 +1685,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
@@ -1708,13 +1699,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D50" s="4">
         <v>1163</v>
@@ -1722,13 +1713,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4">
         <v>40</v>
@@ -1736,13 +1727,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1750,13 +1741,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D53" s="4">
         <v>745</v>
@@ -1764,13 +1755,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1778,13 +1769,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1792,13 +1783,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1806,13 +1797,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1820,13 +1811,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1834,13 +1825,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D59" s="4">
         <v>211</v>
@@ -1848,13 +1839,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1862,13 +1853,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D61" s="4">
         <v>820</v>
@@ -1876,13 +1867,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D62" s="4">
         <v>819</v>
@@ -1890,13 +1881,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D63" s="4">
         <v>553</v>
@@ -1904,13 +1895,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D64" s="4">
         <v>395</v>
@@ -1918,13 +1909,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D65" s="4">
         <v>86</v>
@@ -1932,13 +1923,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D66" s="4">
         <v>87</v>
@@ -1946,27 +1937,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D68" s="4">
         <v>55</v>
@@ -1974,13 +1965,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
         <v>54</v>
@@ -1988,13 +1979,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D70" s="5">
         <v>994</v>
@@ -2002,13 +1993,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D71" s="5">
         <v>695</v>
@@ -2016,27 +2007,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2044,13 +2035,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2058,13 +2049,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2072,13 +2063,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D76" s="4">
         <v>918</v>
@@ -2086,13 +2077,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D77" s="4">
         <v>170</v>
@@ -2100,13 +2091,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D78" s="5">
         <v>163</v>
@@ -2114,13 +2105,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D79" s="5">
         <v>799</v>
@@ -2128,13 +2119,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D80" s="5">
         <v>160</v>
@@ -2142,13 +2133,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D81" s="5">
         <v>569</v>
@@ -2156,13 +2147,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D82" s="5">
         <v>762</v>
@@ -2170,13 +2161,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D83" s="4">
         <v>211</v>
@@ -2184,13 +2175,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2198,13 +2189,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2212,13 +2203,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -2226,13 +2217,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2240,27 +2231,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
@@ -2273,18 +2264,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D49 A51:D89">
+  <conditionalFormatting sqref="A2:D26 A31:D89">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
+  <conditionalFormatting sqref="A27:D30">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
+      <formula>LEN(TRIM(A27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DE4E2-4936-4F55-8CDD-3DFF20269F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A52FA-70BF-4250-B8FB-25580469D2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -353,15 +344,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -404,9 +389,6 @@
     <t>S020048</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
     <t>QUADRO DE AVISO - UNICA</t>
   </si>
   <si>
@@ -443,9 +425,6 @@
     <t>S150295</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -549,6 +528,27 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -999,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1027,13 +1072,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1041,13 +1086,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>105</v>
@@ -1055,13 +1100,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>103</v>
@@ -1069,13 +1114,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1083,13 +1128,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1097,27 +1142,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="5">
         <v>809</v>
@@ -1125,13 +1170,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D9" s="5">
         <v>1045</v>
@@ -1139,13 +1184,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="4">
         <v>103</v>
@@ -1153,13 +1198,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4">
         <v>33</v>
@@ -1167,13 +1212,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D12" s="4">
         <v>31</v>
@@ -1181,13 +1226,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
@@ -1195,13 +1240,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1209,13 +1254,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1223,13 +1268,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -1237,13 +1282,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1251,13 +1296,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -1265,13 +1310,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1279,13 +1324,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1293,13 +1338,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D21" s="4">
         <v>52</v>
@@ -1307,13 +1352,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1321,13 +1366,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1335,13 +1380,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D24" s="4">
         <v>108</v>
@@ -1349,13 +1394,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1363,13 +1408,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D26" s="4">
         <v>103</v>
@@ -1377,13 +1422,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1391,13 +1436,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1405,13 +1450,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1419,13 +1464,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1433,13 +1478,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
@@ -1447,27 +1492,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1475,13 +1520,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4">
         <v>1159</v>
@@ -1489,13 +1534,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1503,13 +1548,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D36" s="5">
         <v>899</v>
@@ -1517,13 +1562,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="5">
         <v>896</v>
@@ -1531,13 +1576,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="5">
         <v>900</v>
@@ -1545,13 +1590,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="5">
         <v>898</v>
@@ -1559,13 +1604,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1573,13 +1618,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
@@ -1587,13 +1632,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D42" s="4">
         <v>166</v>
@@ -1601,13 +1646,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="4">
         <v>167</v>
@@ -1615,41 +1660,41 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1657,13 +1702,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1671,13 +1716,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1685,13 +1730,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
@@ -1699,13 +1744,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D50" s="4">
         <v>1163</v>
@@ -1713,13 +1758,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4">
         <v>40</v>
@@ -1727,13 +1772,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1741,13 +1786,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4">
         <v>745</v>
@@ -1755,13 +1800,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1769,13 +1814,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1783,13 +1828,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1797,13 +1842,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1811,13 +1856,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1825,13 +1870,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4">
         <v>211</v>
@@ -1839,27 +1884,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D61" s="4">
         <v>820</v>
@@ -1867,13 +1912,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D62" s="4">
         <v>819</v>
@@ -1881,13 +1926,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4">
         <v>553</v>
@@ -1895,13 +1940,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D64" s="4">
         <v>395</v>
@@ -1909,13 +1954,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D65" s="4">
         <v>86</v>
@@ -1923,13 +1968,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D66" s="4">
         <v>87</v>
@@ -1937,27 +1982,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D68" s="4">
         <v>55</v>
@@ -1965,13 +2010,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D69" s="4">
         <v>54</v>
@@ -1979,13 +2024,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D70" s="5">
         <v>994</v>
@@ -1993,13 +2038,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D71" s="5">
         <v>695</v>
@@ -2007,27 +2052,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2035,13 +2080,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2049,13 +2094,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2063,13 +2108,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D76" s="4">
         <v>918</v>
@@ -2077,13 +2122,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D77" s="4">
         <v>170</v>
@@ -2091,13 +2136,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D78" s="5">
         <v>163</v>
@@ -2105,13 +2150,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D79" s="5">
         <v>799</v>
@@ -2119,13 +2164,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D80" s="5">
         <v>160</v>
@@ -2133,13 +2178,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D81" s="5">
         <v>569</v>
@@ -2147,13 +2192,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D82" s="5">
         <v>762</v>
@@ -2161,13 +2206,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4">
         <v>211</v>
@@ -2175,13 +2220,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2189,13 +2234,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2203,13 +2248,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -2217,13 +2262,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2231,27 +2276,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
@@ -2264,18 +2309,43 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="7" priority="21">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D26 A31:D89">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D2 A4:D44 B3:D3 A46:D53 B45:C45 A59:D59 A61:D89 A57:D57 B54:D56">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:D30">
+  <conditionalFormatting sqref="A3">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(A45))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(D45))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:D58">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A58))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:D60">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A60))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A56">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A27))&gt;0</formula>
+      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A52FA-70BF-4250-B8FB-25580469D2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA0E453-1C08-4971-ADE1-C11664A48832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -326,9 +326,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -542,13 +536,19 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -656,61 +656,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1045,7 +991,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A56"/>
+      <selection activeCell="B54" sqref="B54:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1072,24 +1018,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1103,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1117,7 +1063,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>94</v>
@@ -1128,13 +1074,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1142,16 +1088,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1173,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1187,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1201,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1215,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1229,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1243,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1254,13 +1200,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1271,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1285,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1296,10 +1242,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1313,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1327,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1341,7 +1287,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1352,13 +1298,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1366,13 +1312,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1383,7 +1329,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>29</v>
@@ -1394,13 +1340,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1411,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>31</v>
@@ -1422,13 +1368,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1436,13 +1382,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1450,13 +1396,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1464,13 +1410,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1481,7 +1427,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1492,27 +1438,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1520,16 +1466,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1551,7 +1497,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>38</v>
@@ -1565,7 +1511,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1579,7 +1525,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>38</v>
@@ -1593,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>38</v>
@@ -1604,13 +1550,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1618,13 +1564,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
@@ -1635,7 +1581,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>43</v>
@@ -1649,7 +1595,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>
@@ -1660,24 +1606,24 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1691,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1705,7 +1651,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1719,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>51</v>
@@ -1730,13 +1676,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
@@ -1744,13 +1690,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="4">
         <v>1163</v>
@@ -1761,7 +1707,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1775,7 +1721,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
@@ -1789,7 +1735,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>57</v>
@@ -1800,13 +1746,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1817,10 +1763,10 @@
         <v>168</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1831,10 +1777,10 @@
         <v>169</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1845,7 +1791,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
@@ -1856,10 +1802,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -1873,7 +1819,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1884,13 +1830,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1901,7 +1847,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>64</v>
@@ -1915,7 +1861,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>64</v>
@@ -1929,7 +1875,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>67</v>
@@ -1943,7 +1889,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>69</v>
@@ -1957,7 +1903,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>71</v>
@@ -1971,7 +1917,7 @@
         <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>71</v>
@@ -1982,16 +1928,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,7 +1945,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>74</v>
@@ -2013,7 +1959,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>74</v>
@@ -2027,7 +1973,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>77</v>
@@ -2041,7 +1987,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>77</v>
@@ -2052,16 +1998,16 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,7 +2015,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>80</v>
@@ -2080,13 +2026,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2097,7 +2043,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>82</v>
@@ -2108,13 +2054,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D76" s="4">
         <v>918</v>
@@ -2125,7 +2071,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>84</v>
@@ -2139,7 +2085,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>84</v>
@@ -2153,7 +2099,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>84</v>
@@ -2167,7 +2113,7 @@
         <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>88</v>
@@ -2181,7 +2127,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>88</v>
@@ -2195,7 +2141,7 @@
         <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>88</v>
@@ -2209,7 +2155,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>92</v>
@@ -2220,13 +2166,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2234,13 +2180,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2248,13 +2194,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D86" s="4">
         <v>2</v>
@@ -2262,13 +2208,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2276,27 +2222,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
@@ -2309,43 +2255,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="21">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D2 A4:D44 B3:D3 A46:D53 B45:C45 A59:D59 A61:D89 A57:D57 B54:D56">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="7">
+  <conditionalFormatting sqref="A2:D89">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(D45))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:D58">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D60">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A60))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A56">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA0E453-1C08-4971-ADE1-C11664A48832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EE1E35-59C9-44AA-9151-A1F36366F7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="168">
   <si>
     <t>Complemento</t>
   </si>
@@ -341,15 +341,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -401,12 +395,6 @@
     <t>S020007</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
   </si>
   <si>
@@ -476,12 +464,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
   </si>
   <si>
@@ -549,6 +531,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -656,7 +650,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -988,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1018,10 +1030,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>95</v>
@@ -1032,10 +1044,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1049,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1063,7 +1075,7 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>94</v>
@@ -1074,13 +1086,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1088,16 +1100,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>127</v>
+        <v>165</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1119,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1133,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1147,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1161,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1175,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1189,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1200,13 +1212,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1217,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1231,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1242,10 +1254,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1259,7 +1271,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1273,7 +1285,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1287,7 +1299,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1301,7 +1313,7 @@
         <v>96</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>97</v>
@@ -1312,10 +1324,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>97</v>
@@ -1329,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>29</v>
@@ -1340,13 +1352,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1357,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>31</v>
@@ -1368,13 +1380,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1382,13 +1394,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1396,13 +1408,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1410,13 +1422,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1427,7 +1439,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1438,27 +1450,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1466,10 +1478,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1483,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1497,7 +1509,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>38</v>
@@ -1511,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1525,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>38</v>
@@ -1539,7 +1551,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>38</v>
@@ -1550,13 +1562,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1564,13 +1576,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
@@ -1581,7 +1593,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>43</v>
@@ -1595,7 +1607,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>
@@ -1606,24 +1618,24 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1637,7 +1649,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1651,7 +1663,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1665,7 +1677,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>51</v>
@@ -1679,7 +1691,7 @@
         <v>98</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>99</v>
@@ -1690,16 +1702,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D50" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,7 +1719,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1721,7 +1733,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
@@ -1735,7 +1747,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>57</v>
@@ -1746,13 +1758,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1760,13 +1772,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1774,13 +1786,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1791,7 +1803,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
@@ -1802,10 +1814,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>60</v>
@@ -1819,7 +1831,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>62</v>
@@ -1830,13 +1842,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1847,7 +1859,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>64</v>
@@ -1861,7 +1873,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>64</v>
@@ -1875,7 +1887,7 @@
         <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>67</v>
@@ -1889,7 +1901,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>69</v>
@@ -1903,7 +1915,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>71</v>
@@ -1917,7 +1929,7 @@
         <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>71</v>
@@ -1928,16 +1940,16 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,7 +1957,7 @@
         <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>74</v>
@@ -1959,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>74</v>
@@ -1973,7 +1985,7 @@
         <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>77</v>
@@ -1987,7 +1999,7 @@
         <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>77</v>
@@ -1998,16 +2010,16 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2015,7 +2027,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>80</v>
@@ -2026,13 +2038,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2043,7 +2055,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>82</v>
@@ -2054,16 +2066,16 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D76" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2071,7 +2083,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>84</v>
@@ -2085,7 +2097,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>84</v>
@@ -2099,7 +2111,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>84</v>
@@ -2113,7 +2125,7 @@
         <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>88</v>
@@ -2127,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>88</v>
@@ -2141,7 +2153,7 @@
         <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>88</v>
@@ -2155,7 +2167,7 @@
         <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>92</v>
@@ -2166,13 +2178,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2180,88 +2192,84 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D85" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D86" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="5">
+        <v>119</v>
+      </c>
+      <c r="D88" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D88" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
-      <sortCondition ref="A1:A88"/>
+  <autoFilter ref="A1:D87" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
+      <sortCondition ref="A1:A87"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="3" priority="29">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D89">
+  <conditionalFormatting sqref="A2:D75 B76:D76 A87:D88 B86:D86 A77:D85">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A86))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EE1E35-59C9-44AA-9151-A1F36366F7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B842AE-35BD-4B11-9293-D840104D8536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -512,9 +509,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -543,6 +537,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -650,16 +650,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1002,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1030,13 +1021,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1044,10 +1035,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1061,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1072,13 +1063,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D5" s="5">
         <v>53</v>
@@ -1086,13 +1077,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D6" s="5">
         <v>2</v>
@@ -1100,13 +1091,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1117,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1131,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1145,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1159,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1173,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1187,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1201,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1212,13 +1203,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1229,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1243,7 +1234,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1254,10 +1245,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1271,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1285,7 +1276,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1299,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>27</v>
@@ -1310,13 +1301,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D22" s="5">
         <v>904</v>
@@ -1324,13 +1315,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1341,7 +1332,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>29</v>
@@ -1352,13 +1343,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1369,7 +1360,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>31</v>
@@ -1380,13 +1371,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1394,13 +1385,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1408,13 +1399,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1422,13 +1413,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1439,7 +1430,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>33</v>
@@ -1450,27 +1441,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -1478,10 +1469,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1495,7 +1486,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1509,7 +1500,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>38</v>
@@ -1523,7 +1514,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>38</v>
@@ -1537,7 +1528,7 @@
         <v>40</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>38</v>
@@ -1551,7 +1542,7 @@
         <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>38</v>
@@ -1562,13 +1553,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -1576,13 +1567,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D41" s="4">
         <v>750</v>
@@ -1593,7 +1584,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>43</v>
@@ -1607,7 +1598,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>
@@ -1618,24 +1609,24 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1649,7 +1640,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1663,7 +1654,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1677,7 +1668,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>51</v>
@@ -1688,13 +1679,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
@@ -1702,13 +1693,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="D50" s="4">
         <v>1164</v>
@@ -1719,7 +1710,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1733,7 +1724,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
@@ -1747,7 +1738,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>57</v>
@@ -1758,13 +1749,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1772,13 +1763,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1786,13 +1777,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1803,7 +1794,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
@@ -1814,27 +1805,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="D58" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D59" s="4">
         <v>211</v>
@@ -1842,13 +1833,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1856,13 +1847,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D61" s="4">
         <v>820</v>
@@ -1870,13 +1861,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" s="4">
         <v>819</v>
@@ -1884,13 +1875,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D63" s="4">
         <v>553</v>
@@ -1898,13 +1889,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D64" s="4">
         <v>395</v>
@@ -1912,13 +1903,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D65" s="4">
         <v>86</v>
@@ -1926,13 +1917,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="4">
         <v>87</v>
@@ -1940,27 +1931,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D68" s="4">
         <v>55</v>
@@ -1968,13 +1959,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D69" s="4">
         <v>54</v>
@@ -1982,13 +1973,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D70" s="5">
         <v>994</v>
@@ -1996,13 +1987,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D71" s="5">
         <v>695</v>
@@ -2010,27 +2001,27 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2038,13 +2029,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2052,13 +2043,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D75" s="4">
         <v>107</v>
@@ -2066,13 +2057,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D76" s="4">
         <v>986</v>
@@ -2080,13 +2071,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D77" s="4">
         <v>170</v>
@@ -2094,13 +2085,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="5">
         <v>163</v>
@@ -2108,13 +2099,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79" s="5">
         <v>799</v>
@@ -2122,13 +2113,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D80" s="5">
         <v>160</v>
@@ -2136,13 +2127,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="5">
         <v>569</v>
@@ -2150,13 +2141,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" s="5">
         <v>762</v>
@@ -2164,13 +2155,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D83" s="4">
         <v>211</v>
@@ -2178,13 +2169,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2192,13 +2183,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D85" s="4">
         <v>2</v>
@@ -2206,13 +2197,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2220,27 +2211,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D88" s="5">
         <v>1</v>
@@ -2253,23 +2244,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="29">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D75 B76:D76 A87:D88 B86:D86 A77:D85">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:D57 A59:D88">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A76))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
+  <conditionalFormatting sqref="A58:D58">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A86))&gt;0</formula>
+      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B842AE-35BD-4B11-9293-D840104D8536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5003E5B1-8E3E-4DF3-8665-A5857D9EE18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -650,16 +644,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -991,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D58"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1021,13 +1006,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1035,10 +1020,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1049,58 +1034,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="D4" s="5">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
+        <v>161</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1208</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1093,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5">
-        <v>809</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,55 +1107,55 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
-        <v>1045</v>
+      <c r="D9" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,24 +1163,24 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1203,16 +1188,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,41 +1205,41 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1276,209 +1261,209 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4">
-        <v>52</v>
+        <v>94</v>
+      </c>
+      <c r="D21" s="5">
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="5">
-        <v>904</v>
+        <v>94</v>
+      </c>
+      <c r="D22" s="4">
+        <v>903</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4">
-        <v>903</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="4">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D25" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1179</v>
+        <v>31</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>144</v>
+      <c r="D32" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,13 +1471,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="4">
-        <v>1</v>
+      <c r="D35" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1500,83 +1485,83 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D38" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5">
-        <v>898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D40" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="D41" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,55 +1569,55 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="4">
-        <v>167</v>
+        <v>131</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>122</v>
+        <v>43</v>
+      </c>
+      <c r="D44" s="4">
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1640,7 +1625,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1654,24 +1639,24 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="4">
-        <v>80</v>
+      <c r="D47" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1679,30 +1664,30 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1164</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D50" s="4">
-        <v>1164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,13 +1695,13 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,27 +1709,27 @@
         <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="D53" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,97 +1737,97 @@
         <v>158</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D55" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="D56" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="D57" s="4">
-        <v>2</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4">
-        <v>1181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D59" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,27 +1835,27 @@
         <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D62" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,13 +1863,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D63" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,13 +1877,13 @@
         <v>67</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1906,41 +1891,41 @@
         <v>69</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D65" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="4">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>135</v>
+        <v>71</v>
+      </c>
+      <c r="D67" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1948,80 +1933,80 @@
         <v>72</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D68" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="4">
-        <v>54</v>
+      <c r="D69" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D70" s="5">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="5">
-        <v>695</v>
+        <v>135</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>122</v>
+        <v>77</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2029,44 +2014,44 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D74" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D75" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D76" s="4">
-        <v>986</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,41 +2059,41 @@
         <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="4">
-        <v>170</v>
+        <v>81</v>
+      </c>
+      <c r="D77" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D78" s="5">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D79" s="5">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2116,146 +2101,127 @@
         <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D80" s="5">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" s="5">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="5">
-        <v>762</v>
+      <c r="D82" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D83" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D85" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" s="5">
+        <v>116</v>
+      </c>
+      <c r="D87" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
-      <sortCondition ref="A1:A87"/>
+  <autoFilter ref="A1:D86" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
+      <sortCondition ref="A1:A86"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D57 A59:D88">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D87">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:D58">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5003E5B1-8E3E-4DF3-8665-A5857D9EE18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925A984-C0D4-49F2-9637-DD2E333D36B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="163">
   <si>
     <t>Complemento</t>
   </si>
@@ -248,9 +248,6 @@
     <t>S020025</t>
   </si>
   <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
     <t>PILHA - AA (PAR)</t>
   </si>
   <si>
@@ -435,12 +432,6 @@
   </si>
   <si>
     <t>S230009</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
-  </si>
-  <si>
-    <t>88</t>
   </si>
   <si>
     <t>PRANCHETA A4 - UNICA</t>
@@ -976,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1006,13 +997,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1020,10 +1011,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1034,13 +1025,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1048,13 +1039,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1062,13 +1053,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1079,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1093,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1107,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1121,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1135,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1149,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1163,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1174,13 +1165,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1191,7 +1182,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1205,7 +1196,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1216,10 +1207,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1233,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1247,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1261,7 +1252,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1272,13 +1263,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D21" s="5">
         <v>904</v>
@@ -1286,13 +1277,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4">
         <v>903</v>
@@ -1303,7 +1294,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1314,13 +1305,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1331,7 +1322,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1342,13 +1333,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1356,13 +1347,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1370,13 +1361,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1384,13 +1375,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="4">
         <v>1179</v>
@@ -1401,7 +1392,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1412,27 +1403,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
@@ -1440,10 +1431,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1457,7 +1448,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1471,7 +1462,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1485,7 +1476,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1499,7 +1490,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1513,7 +1504,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -1524,13 +1515,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1538,13 +1529,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1555,7 +1546,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1569,7 +1560,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>41</v>
@@ -1580,24 +1571,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1611,7 +1602,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1625,7 +1616,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1639,7 +1630,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1650,13 +1641,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1664,13 +1655,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D49" s="4">
         <v>1164</v>
@@ -1681,7 +1672,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>51</v>
@@ -1695,7 +1686,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1709,7 +1700,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
@@ -1720,13 +1711,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1734,13 +1725,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="4">
         <v>32</v>
@@ -1748,13 +1739,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D55" s="4">
         <v>31</v>
@@ -1765,7 +1756,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>57</v>
@@ -1776,13 +1767,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D57" s="4">
         <v>1181</v>
@@ -1793,7 +1784,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>59</v>
@@ -1804,13 +1795,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D59" s="4">
         <v>1167</v>
@@ -1821,7 +1812,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>61</v>
@@ -1835,7 +1826,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -1849,7 +1840,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>64</v>
@@ -1863,7 +1854,7 @@
         <v>65</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>66</v>
@@ -1877,7 +1868,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>68</v>
@@ -1891,41 +1882,41 @@
         <v>69</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D65" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>133</v>
+        <v>70</v>
+      </c>
+      <c r="D66" s="4">
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="4">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="D67" s="5">
+        <v>994</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1933,220 +1924,220 @@
         <v>72</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="4">
-        <v>54</v>
+        <v>73</v>
+      </c>
+      <c r="D68" s="5">
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="5">
-        <v>994</v>
+        <v>132</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" s="5">
-        <v>695</v>
+        <v>76</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D72" s="4">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
+        <v>986</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D74" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="4">
-        <v>986</v>
+        <v>80</v>
+      </c>
+      <c r="D75" s="5">
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D76" s="4">
-        <v>170</v>
+      <c r="D76" s="5">
+        <v>799</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D77" s="5">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D78" s="5">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D79" s="5">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="5">
-        <v>569</v>
+        <v>88</v>
+      </c>
+      <c r="D80" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="5">
-        <v>762</v>
+        <v>113</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D82" s="4">
-        <v>211</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2154,64 +2145,36 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" s="4">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85" s="4">
+        <v>115</v>
+      </c>
+      <c r="D85" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D86" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D87">
-      <sortCondition ref="A1:A86"/>
+  <autoFilter ref="A1:D84" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D85">
+      <sortCondition ref="A1:A84"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2219,7 +2182,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D87">
+  <conditionalFormatting sqref="A2:D85">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925A984-C0D4-49F2-9637-DD2E333D36B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D97DF-31E6-45A8-AAB9-48683FC05A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
   <si>
     <t>Complemento</t>
   </si>
@@ -230,9 +230,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -528,6 +522,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -635,7 +632,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -970,7 +976,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+      <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -997,13 +1003,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1011,10 +1017,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1025,13 +1031,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1039,13 +1045,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1053,13 +1059,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1070,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1084,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1098,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1112,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1126,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1140,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1154,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1165,13 +1171,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1182,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1196,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1207,10 +1213,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1224,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1238,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1252,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1263,13 +1269,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D21" s="5">
         <v>904</v>
@@ -1277,13 +1283,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="4">
         <v>903</v>
@@ -1294,7 +1300,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1305,13 +1311,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1322,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1333,13 +1339,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1347,13 +1353,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1361,13 +1367,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1375,13 +1381,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4">
         <v>1179</v>
@@ -1392,7 +1398,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1403,27 +1409,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
@@ -1431,10 +1437,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1448,7 +1454,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1462,7 +1468,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1476,7 +1482,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1490,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1504,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -1515,13 +1521,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1529,13 +1535,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1546,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1560,7 +1566,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>41</v>
@@ -1571,24 +1577,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1602,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1616,7 +1622,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1630,7 +1636,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1641,13 +1647,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1655,13 +1661,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="4">
         <v>1164</v>
@@ -1672,7 +1678,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>51</v>
@@ -1686,7 +1692,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1700,7 +1706,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
@@ -1711,13 +1717,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1725,13 +1731,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" s="4">
         <v>32</v>
@@ -1739,13 +1745,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="4">
         <v>31</v>
@@ -1756,7 +1762,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>57</v>
@@ -1767,13 +1773,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D57" s="4">
         <v>1181</v>
@@ -1784,7 +1790,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>59</v>
@@ -1795,13 +1801,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" s="4">
         <v>1167</v>
@@ -1812,7 +1818,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>61</v>
@@ -1826,7 +1832,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
@@ -1837,27 +1843,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D62" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D63" s="4">
         <v>395</v>
@@ -1865,13 +1871,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D64" s="4">
         <v>86</v>
@@ -1879,13 +1885,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D65" s="4">
         <v>55</v>
@@ -1893,13 +1899,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="4">
         <v>54</v>
@@ -1907,13 +1913,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="5">
         <v>994</v>
@@ -1921,13 +1927,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D68" s="5">
         <v>695</v>
@@ -1935,27 +1941,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -1963,13 +1969,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -1977,13 +1983,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D72" s="4">
         <v>107</v>
@@ -1991,13 +1997,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73" s="4">
         <v>986</v>
@@ -2005,13 +2011,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D74" s="4">
         <v>170</v>
@@ -2019,13 +2025,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" s="5">
         <v>163</v>
@@ -2033,13 +2039,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="5">
         <v>799</v>
@@ -2047,13 +2053,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D77" s="5">
         <v>160</v>
@@ -2061,13 +2067,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D78" s="5">
         <v>569</v>
@@ -2075,13 +2081,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D79" s="5">
         <v>762</v>
@@ -2089,13 +2095,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D80" s="4">
         <v>211</v>
@@ -2103,13 +2109,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2117,13 +2123,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D82" s="4">
         <v>2</v>
@@ -2131,13 +2137,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2145,27 +2151,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
@@ -2178,13 +2184,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D85">
+  <conditionalFormatting sqref="A2:D61 A63:D85">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:D62">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D97DF-31E6-45A8-AAB9-48683FC05A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49370E-02AE-42B8-96FB-70FE854E5483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1146,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1160,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1202,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1230,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1258,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>25</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D21" s="5">
         <v>904</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="4">
         <v>903</v>
@@ -1300,7 +1300,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="4">
         <v>1179</v>
@@ -1398,7 +1398,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>31</v>
@@ -1409,27 +1409,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1454,7 +1454,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1468,7 +1468,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1482,7 +1482,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1496,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1510,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1552,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1566,7 +1566,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>41</v>
@@ -1577,24 +1577,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1608,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1619,27 +1619,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D46" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D49" s="4">
         <v>1164</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D50" s="4">
         <v>40</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="4">
         <v>32</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55" s="4">
         <v>31</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D57" s="4">
         <v>1181</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" s="4">
         <v>1167</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D60" s="4">
         <v>820</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="4">
         <v>819</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="4">
         <v>1394</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D63" s="4">
         <v>395</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D64" s="4">
         <v>86</v>
@@ -1885,13 +1885,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D65" s="4">
         <v>55</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="4">
         <v>54</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="5">
         <v>994</v>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D68" s="5">
         <v>695</v>
@@ -1941,27 +1941,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -1983,13 +1983,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D72" s="4">
         <v>107</v>
@@ -1997,13 +1997,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D73" s="4">
         <v>986</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D74" s="4">
         <v>170</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="5">
         <v>163</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="5">
         <v>799</v>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D77" s="5">
         <v>160</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D78" s="5">
         <v>569</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D79" s="5">
         <v>762</v>
@@ -2095,13 +2095,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D80" s="4">
         <v>211</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D82" s="4">
         <v>2</v>
@@ -2137,13 +2137,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2151,27 +2151,27 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D85" s="5">
         <v>1</v>
@@ -2184,18 +2184,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="32">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D61 A63:D85">
+  <conditionalFormatting sqref="A2:D45 A47:D85">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:D62">
+  <conditionalFormatting sqref="A46:D46">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
+      <formula>LEN(TRIM(A46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49370E-02AE-42B8-96FB-70FE854E5483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A6A6D-4599-41ED-9C74-496A964EB50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,15 +98,9 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
-    <t>CLIPE 8/0 COM 25UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020090</t>
   </si>
   <si>
@@ -131,18 +122,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -182,9 +167,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -260,9 +239,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -317,9 +293,6 @@
     <t>S010009</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -347,21 +320,12 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110018</t>
   </si>
   <si>
-    <t>EXTRATOR DE GRAMPOS - UNICA</t>
-  </si>
-  <si>
     <t>S020048</t>
   </si>
   <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
@@ -371,30 +335,15 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>UM.</t>
   </si>
   <si>
@@ -419,21 +368,12 @@
     <t>PC C/10</t>
   </si>
   <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -512,9 +452,6 @@
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - TNT</t>
   </si>
   <si>
@@ -525,6 +462,66 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 8/0 - 25UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESPANADOR - PENA</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>EXTRATOR DE GRAMPOS - METALICO</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - ACCU-CHEK</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -632,16 +629,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -975,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1003,13 +991,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1017,10 +1005,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1031,13 +1019,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5">
         <v>53</v>
@@ -1045,13 +1033,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -1059,13 +1047,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1076,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1090,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1104,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1118,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1132,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1146,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1157,41 +1145,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -1199,13 +1187,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1213,13 +1201,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -1227,41 +1215,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4">
         <v>52</v>
@@ -1269,13 +1257,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5">
         <v>904</v>
@@ -1283,13 +1271,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D22" s="4">
         <v>903</v>
@@ -1297,13 +1285,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4">
         <v>108</v>
@@ -1311,27 +1299,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D24" s="5">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4">
         <v>103</v>
@@ -1339,13 +1327,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1353,13 +1341,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1367,13 +1355,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1381,13 +1369,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4">
         <v>1179</v>
@@ -1395,55 +1383,55 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D30" s="5">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5">
-        <v>1</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="4">
         <v>1162</v>
@@ -1451,27 +1439,27 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D35" s="5">
         <v>899</v>
@@ -1479,13 +1467,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D36" s="5">
         <v>896</v>
@@ -1493,13 +1481,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D37" s="5">
         <v>900</v>
@@ -1507,13 +1495,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D38" s="5">
         <v>898</v>
@@ -1521,27 +1509,27 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D39" s="5">
-        <v>1</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1549,13 +1537,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D41" s="4">
         <v>166</v>
@@ -1563,13 +1551,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D42" s="4">
         <v>167</v>
@@ -1577,27 +1565,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="D43" s="4">
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D44" s="4">
         <v>448</v>
@@ -1605,13 +1593,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D45" s="4">
         <v>80</v>
@@ -1619,13 +1607,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4">
         <v>1396</v>
@@ -1633,41 +1621,41 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D47" s="5">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D49" s="4">
         <v>1164</v>
@@ -1675,13 +1663,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D50" s="4">
         <v>40</v>
@@ -1689,27 +1677,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D52" s="4">
         <v>745</v>
@@ -1717,13 +1705,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1731,13 +1719,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D54" s="4">
         <v>32</v>
@@ -1745,13 +1733,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4">
         <v>31</v>
@@ -1759,13 +1747,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D56" s="4">
         <v>2</v>
@@ -1773,13 +1761,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D57" s="4">
         <v>1181</v>
@@ -1787,13 +1775,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D58" s="4">
         <v>211</v>
@@ -1801,13 +1789,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D59" s="4">
         <v>1167</v>
@@ -1815,13 +1803,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D60" s="4">
         <v>820</v>
@@ -1829,13 +1817,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D61" s="4">
         <v>819</v>
@@ -1843,13 +1831,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D62" s="4">
         <v>1394</v>
@@ -1857,13 +1845,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D63" s="4">
         <v>395</v>
@@ -1871,13 +1859,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D64" s="4">
         <v>86</v>
@@ -1885,13 +1873,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D65" s="4">
         <v>55</v>
@@ -1899,13 +1887,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D66" s="4">
         <v>54</v>
@@ -1913,13 +1901,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D67" s="5">
         <v>994</v>
@@ -1927,13 +1915,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D68" s="5">
         <v>695</v>
@@ -1941,55 +1929,55 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D70" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D72" s="4">
         <v>107</v>
@@ -1997,13 +1985,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D73" s="4">
         <v>986</v>
@@ -2011,13 +1999,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D74" s="4">
         <v>170</v>
@@ -2025,13 +2013,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D75" s="5">
         <v>163</v>
@@ -2039,13 +2027,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D76" s="5">
         <v>799</v>
@@ -2053,13 +2041,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D77" s="5">
         <v>160</v>
@@ -2067,13 +2055,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D78" s="5">
         <v>569</v>
@@ -2081,13 +2069,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D79" s="5">
         <v>762</v>
@@ -2095,13 +2083,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
         <v>211</v>
@@ -2109,27 +2097,27 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D81" s="4">
-        <v>1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D82" s="4">
         <v>2</v>
@@ -2137,65 +2125,60 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D83" s="4">
-        <v>1</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D85" s="5">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D84" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
+  <autoFilter ref="A1:D85" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D85">
       <sortCondition ref="A1:A84"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="1" priority="32">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D45 A47:D85">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D85">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:D46">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A6A6D-4599-41ED-9C74-496A964EB50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A347E7B-E7AC-45F3-BD11-0596B19CC510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -428,9 +428,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
   </si>
   <si>
@@ -522,6 +519,9 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>102</v>
@@ -1000,7 +1000,7 @@
         <v>81</v>
       </c>
       <c r="D2" s="5">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,13 +1047,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>103</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D14" s="4">
         <v>1184</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>102</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>102</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>103</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>103</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>103</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>103</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>103</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>103</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>102</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>103</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>102</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>103</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" s="4">
         <v>32</v>
@@ -1733,13 +1733,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55" s="4">
         <v>31</v>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D57" s="4">
         <v>1181</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>104</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>103</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>103</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>103</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>104</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>103</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>102</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>103</v>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A347E7B-E7AC-45F3-BD11-0596B19CC510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4AC3B0-C633-4FEC-9BBE-5384837FA561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="160">
   <si>
     <t>Complemento</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
   <si>
     <t>FILME PVC PLASTICO - 300 M</t>
@@ -629,7 +626,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -964,7 +970,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +997,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>102</v>
@@ -1005,7 +1011,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>103</v>
@@ -1047,13 +1053,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1145,7 +1151,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>103</v>
@@ -1159,13 +1165,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="D14" s="4">
         <v>1184</v>
@@ -1215,7 +1221,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>102</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>102</v>
@@ -1299,7 +1305,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>103</v>
@@ -1327,7 +1333,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>103</v>
@@ -1336,12 +1342,12 @@
         <v>91</v>
       </c>
       <c r="D26" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>103</v>
@@ -1350,12 +1356,12 @@
         <v>91</v>
       </c>
       <c r="D27" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>103</v>
@@ -1364,12 +1370,12 @@
         <v>91</v>
       </c>
       <c r="D28" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>103</v>
@@ -1378,12 +1384,12 @@
         <v>91</v>
       </c>
       <c r="D29" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>103</v>
@@ -1405,13 +1411,13 @@
       <c r="C31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>116</v>
+      <c r="D31" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>103</v>
@@ -1425,7 +1431,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>103</v>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>103</v>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>103</v>
@@ -1523,13 +1529,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>103</v>
@@ -1579,7 +1585,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>103</v>
@@ -1607,7 +1613,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>102</v>
@@ -1621,7 +1627,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>103</v>
@@ -1635,7 +1641,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>102</v>
@@ -1649,13 +1655,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D49" s="4">
         <v>1164</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>103</v>
@@ -1705,13 +1711,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1719,13 +1725,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="4">
         <v>32</v>
@@ -1733,13 +1739,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D55" s="4">
         <v>31</v>
@@ -1761,13 +1767,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" s="4">
         <v>1181</v>
@@ -1789,7 +1795,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>103</v>
@@ -1831,7 +1837,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>104</v>
@@ -1929,7 +1935,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>103</v>
@@ -1943,7 +1949,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>103</v>
@@ -1957,7 +1963,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>103</v>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>104</v>
@@ -2097,7 +2103,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>103</v>
@@ -2125,7 +2131,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>102</v>
@@ -2153,7 +2159,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>103</v>
@@ -2172,13 +2178,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="32">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D85">
+  <conditionalFormatting sqref="A2:D25 A30:D85">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:D29">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4AC3B0-C633-4FEC-9BBE-5384837FA561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEF1279-C4BA-432C-91CE-A800D3AF84B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="162">
   <si>
     <t>Complemento</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -626,16 +632,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -967,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,77 +1386,77 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D30" s="5">
-        <v>1436</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="5">
-        <v>12</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1454</v>
+        <v>28</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1455</v>
+        <v>31</v>
+      </c>
+      <c r="D34" s="5">
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>103</v>
@@ -1468,12 +1465,12 @@
         <v>31</v>
       </c>
       <c r="D35" s="5">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>103</v>
@@ -1482,12 +1479,12 @@
         <v>31</v>
       </c>
       <c r="D36" s="5">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>103</v>
@@ -1496,54 +1493,54 @@
         <v>31</v>
       </c>
       <c r="D37" s="5">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D38" s="5">
-        <v>898</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1456</v>
+        <v>117</v>
+      </c>
+      <c r="D39" s="4">
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D40" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>103</v>
@@ -1552,77 +1549,77 @@
         <v>36</v>
       </c>
       <c r="D41" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D42" s="4">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D43" s="4">
-        <v>272</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="D46" s="4">
-        <v>1396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,21 +2044,21 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D77" s="5">
-        <v>160</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>107</v>
@@ -2070,12 +2067,12 @@
         <v>74</v>
       </c>
       <c r="D78" s="5">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>107</v>
@@ -2084,112 +2081,121 @@
         <v>74</v>
       </c>
       <c r="D79" s="5">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="4">
-        <v>211</v>
+        <v>74</v>
+      </c>
+      <c r="D80" s="5">
+        <v>762</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D81" s="4">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D82" s="4">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4">
-        <v>1417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>114</v>
+        <v>86</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1417</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="B86" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D86" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D85" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D85">
-      <sortCondition ref="A1:A84"/>
+  <autoFilter ref="A1:D86" xr:uid="{DA8C620E-70A1-4462-8E44-7698626740C3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+      <sortCondition ref="A1:A86"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D25 A30:D85">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D86">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:D29">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/BA_csoservi_cservico_ssala.xlsx
+++ b/pages/BA_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEF1279-C4BA-432C-91CE-A800D3AF84B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD2B2F5-0718-4AEF-8656-E24D943D6809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D6C9B7B8-6E92-47AB-9979-E72F1B069A13}"/>
   </bookViews>
